--- a/biology/Médecine/Michel_Odent/Michel_Odent.xlsx
+++ b/biology/Médecine/Michel_Odent/Michel_Odent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Odent, né le 7 juillet 1930 dans l'Oise, est un chirurgien et obstétricien français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Odent se voit proposer la direction de la maternité de l'hôpital de Pithiviers[1] de 1962 à 1985. Il y développe des recherches originales en vue d'une maternité différente : il lance le concept d'accouchement en salles de naissance « comme à la maison » : pénombre, naissance dans l'eau, liberté de position, « bébés kangourous », groupes de chant, etc.
-En 1985, il s’installe à Londres[1] et accompagne des accouchements assistés à domicile. Il y fonde le Primal Health Research Centre, dont le but est d'étudier les conséquences des événements qui se déroulent durant la période primale (de la conception au premier anniversaire) sur la santé et le comportement de l'enfant et de l'adulte qu'il deviendra. Il crée la banque de données de recherche en santé primale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Odent se voit proposer la direction de la maternité de l'hôpital de Pithiviers de 1962 à 1985. Il y développe des recherches originales en vue d'une maternité différente : il lance le concept d'accouchement en salles de naissance « comme à la maison » : pénombre, naissance dans l'eau, liberté de position, « bébés kangourous », groupes de chant, etc.
+En 1985, il s’installe à Londres et accompagne des accouchements assistés à domicile. Il y fonde le Primal Health Research Centre, dont le but est d'étudier les conséquences des événements qui se déroulent durant la période primale (de la conception au premier anniversaire) sur la santé et le comportement de l'enfant et de l'adulte qu'il deviendra. Il crée la banque de données de recherche en santé primale.
 Michel Odent est membre du « Medical Advisory Board » de la Leche Ligue International depuis trente-cinq ans. 
-Il est visiting Professor à l'université médicale nationale d'Odessa (en) et docteur honoris causa de l'université de Brasilia[2].
-Conférencier, auteur de publications[3], notamment d'un article sur l'introduction de l'allaitement dans l'heure qui suit la naissance[4] et d'un article sur les piscines d'accouchement[5],[6], il a également écrit une quinzaine d'ouvrages, qui ont été traduits en 23 langues.Il anime des sessions d'information pour sages-femmes et doulas dans plusieurs pays.
+Il est visiting Professor à l'université médicale nationale d'Odessa (en) et docteur honoris causa de l'université de Brasilia.
+Conférencier, auteur de publications, notamment d'un article sur l'introduction de l'allaitement dans l'heure qui suit la naissance et d'un article sur les piscines d'accouchement il a également écrit une quinzaine d'ouvrages, qui ont été traduits en 23 langues.Il anime des sessions d'information pour sages-femmes et doulas dans plusieurs pays.
 Sa biographie officielle paraît aux Éditions l'Instant Présent en novembre 2020 sous le titre Michel Odent, passerelle entre le passé et l'avenir par Victorine Meyers.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bien naître, Seuil, 1976.  (ISBN 2-02-004518-4)
 Genèse de l'homme écologique, EPI, 1979.
